--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_3_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_3_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.02000000000047</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01276853700887848</v>
+        <v>8.380092456516941e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01276853700887848</v>
+        <v>8.380092456516941e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.44771760487596</v>
+        <v>56.04219717215794</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[7.789255126475155, 63.10618008327677]</t>
+          <t>[27.007339207122044, 85.07705513719384]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01317170242277088</v>
+        <v>0.00033034592812764</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01317170242277088</v>
+        <v>0.00033034592812764</v>
       </c>
       <c r="P2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.5346053564667317, 2.7233425805893505]</t>
+          <t>[1.0755001877154253, 2.408868841491273]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.004413512310413426</v>
+        <v>3.810568983464435e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004413512310413426</v>
+        <v>3.810568983464435e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>53.55851822779317</v>
+        <v>68.92184652288601</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[36.94515396399471, 70.17188249159163]</t>
+          <t>[51.638357359024795, 86.20533568674723]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.772203581777546e-08</v>
+        <v>3.099864809286146e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>5.772203581777546e-08</v>
+        <v>3.099864809286146e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.53333333333368</v>
+        <v>18.78356356356401</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.17549549549576</v>
+        <v>16.02586586586625</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.8911711711716</v>
+        <v>21.54126126126177</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.02000000000047</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003103686075823786</v>
+        <v>0.0004835247330818859</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003103686075823786</v>
+        <v>0.0004835247330818859</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.21281508806558</v>
+        <v>48.17047000021697</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[18.358126736448284, 80.06750343968287]</t>
+          <t>[21.603971051204795, 74.73696894922915]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.002432984346660394</v>
+        <v>0.0006758391840615552</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002432984346660394</v>
+        <v>0.0006758391840615552</v>
       </c>
       <c r="P3" t="n">
-        <v>1.050342288587577</v>
+        <v>1.528342372016656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.4465527095192705, 1.6541318676558845]</t>
+          <t>[0.7987632973091161, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.001049979699761394</v>
+        <v>0.0001171360212433026</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001049979699761394</v>
+        <v>0.0001171360212433026</v>
       </c>
       <c r="T3" t="n">
-        <v>66.29307562133978</v>
+        <v>64.19458847253296</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.33823760454547, 82.2479136381341]</t>
+          <t>[47.50718896491125, 80.88198798015466]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.008164662863464e-10</v>
+        <v>8.039915400104292e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.008164662863464e-10</v>
+        <v>8.039915400104292e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>20.83747747747788</v>
+        <v>19.66810810810858</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.43315315315351</v>
+        <v>16.65025025025065</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.24180180180224</v>
+        <v>22.68596596596651</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.02000000000047</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008936454241317282</v>
+        <v>8.00290153035732e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008936454241317282</v>
+        <v>8.00290153035732e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>53.61047640872179</v>
+        <v>71.83582947047113</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[17.45743622718564, 89.76351659025795]</t>
+          <t>[44.424468542037104, 99.24719039890515]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.004552009648892463</v>
+        <v>3.622914280576595e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004552009648892463</v>
+        <v>3.622914280576595e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.823921196436963</v>
+        <v>0.9497106920761942</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 1.4151318259413488]</t>
+          <t>[0.5597632555945777, 1.3396581285578106]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.007367881655326647</v>
+        <v>1.260010382542198e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007367881655326647</v>
+        <v>1.260010382542198e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>68.67219767422453</v>
+        <v>65.68388217531371</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.994450739806325, 87.34994460864274]</t>
+          <t>[51.04377279704768, 80.32399155357975]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.56405652265812e-09</v>
+        <v>1.125699533588431e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.56405652265812e-09</v>
+        <v>1.125699533588431e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>21.73909909909951</v>
+        <v>22.06158158158211</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.38486486486523</v>
+        <v>20.44858858858908</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.09333333333379</v>
+        <v>23.67457457457515</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.02000000000047</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003164127523204163</v>
+        <v>0.104922582719539</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003164127523204163</v>
+        <v>0.104922582719539</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.88417849846613</v>
+        <v>25.14265970155639</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.665758303863143, 82.10259869306913]</t>
+          <t>[-1.222148001512295, 51.50746740462507]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001992082374106641</v>
+        <v>0.06111439136728025</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001992082374106641</v>
+        <v>0.06111439136728025</v>
       </c>
       <c r="P5" t="n">
-        <v>0.672973801669885</v>
+        <v>0.1572368695490391</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.08176317216549833, 1.2641844311742716]</t>
+          <t>[-1.446579199851156, 1.7610529389492342]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.02659620333892776</v>
+        <v>0.8443559479470162</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02659620333892776</v>
+        <v>0.8443559479470162</v>
       </c>
       <c r="T5" t="n">
-        <v>75.07583248264163</v>
+        <v>75.39841911168493</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[58.81845349966599, 91.33321146561727]</t>
+          <t>[59.60006787250956, 91.1967703508603]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.7857273699492e-12</v>
+        <v>1.767697099808174e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>4.7857273699492e-12</v>
+        <v>1.767697099808174e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>22.3401801801806</v>
+        <v>25.33959959960021</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.98594594594632</v>
+        <v>18.70551551551596</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.69441441441489</v>
+        <v>31.97368368368445</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.47000000000007</v>
+        <v>23.09000000000017</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002401620161160967</v>
+        <v>6.686210823036998e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002401620161160967</v>
+        <v>6.686210823036998e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>54.64881372396063</v>
+        <v>58.64743022024582</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[22.087981407217086, 87.20964604070417]</t>
+          <t>[27.42452565529733, 89.87033478519432]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001504987962795745</v>
+        <v>0.0004546732857004798</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001504987962795745</v>
+        <v>0.0004546732857004798</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2893158399702314</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.9685791164220783, 0.38994743648161556]</t>
+          <t>[-0.1823947686768852, 1.0251843894597323]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3955165377014023</v>
+        <v>0.166687405008751</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3955165377014023</v>
+        <v>0.166687405008751</v>
       </c>
       <c r="T6" t="n">
-        <v>64.1400639633582</v>
+        <v>67.67674704297309</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.31696345357429, 81.96316447314211]</t>
+          <t>[50.438643309136225, 84.91485077680996]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.372838535715573e-09</v>
+        <v>4.703428757579786e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>4.372838535715573e-09</v>
+        <v>4.703428757579786e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>1.034654654654659</v>
+        <v>21.54142142142158</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.394534534534537</v>
+        <v>19.32256256256271</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.463843843843855</v>
+        <v>23.76028028028046</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.47000000000007</v>
+        <v>23.09000000000017</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005100295561527579</v>
+        <v>0.005487479926060468</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005100295561527579</v>
+        <v>0.005487479926060468</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.03633811287819</v>
+        <v>42.86839517302405</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[9.487871644507791, 84.58480458124859]</t>
+          <t>[7.857570905036461, 77.87921944101163]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01523737336614106</v>
+        <v>0.0175340269942863</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01523737336614106</v>
+        <v>0.0175340269942863</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4088158608275014</v>
+        <v>0.7610264486173479</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, 1.3082107546480035]</t>
+          <t>[0.08176317216550189, 1.440289725069194]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3648084526478648</v>
+        <v>0.02894115723803159</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3648084526478648</v>
+        <v>0.02894115723803159</v>
       </c>
       <c r="T7" t="n">
-        <v>57.69722582443219</v>
+        <v>62.05684371520823</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[38.00407376962688, 77.39037787923752]</t>
+          <t>[44.259831278680764, 79.8538561517357]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.379696503242769e-07</v>
+        <v>9.419517832398583e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>4.379696503242769e-07</v>
+        <v>9.419517832398583e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>21.00798798798805</v>
+        <v>20.29331331331346</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.79156156156161</v>
+        <v>17.79709709709723</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.22441441441449</v>
+        <v>22.78952952952969</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.47000000000007</v>
+        <v>23.09000000000017</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003506763442103433</v>
+        <v>0.002107766604203865</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003506763442103433</v>
+        <v>0.002107766604203865</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.35406569282461</v>
+        <v>43.37236336141363</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[10.36202267058809, 74.34610871506112]</t>
+          <t>[12.162801408445787, 74.58192531438146]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01061170515481047</v>
+        <v>0.007521921527160913</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01061170515481047</v>
+        <v>0.007521921527160913</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5220264069028087</v>
+        <v>0.8742369946926551</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.22013161736865428, 1.2641844311742716]</t>
+          <t>[0.19497371824080734, 1.553500271144503]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.163456650776824</v>
+        <v>0.01281490637790528</v>
       </c>
       <c r="S8" t="n">
-        <v>0.163456650776824</v>
+        <v>0.01281490637790528</v>
       </c>
       <c r="T8" t="n">
-        <v>56.20441936066299</v>
+        <v>70.45040926662159</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[39.26011261858636, 73.14872610273962]</t>
+          <t>[54.13309120333, 86.76772732991319]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.035217521762945e-08</v>
+        <v>3.422706562616895e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.035217521762945e-08</v>
+        <v>3.422706562616895e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>20.60312312312319</v>
+        <v>19.87727727727743</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.94900900900907</v>
+        <v>17.38106106106119</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.25723723723731</v>
+        <v>22.37349349349366</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_3_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_3_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.2000000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.380092456516941e-05</v>
+        <v>0.0001503531504074562</v>
       </c>
       <c r="I2" t="n">
-        <v>8.380092456516941e-05</v>
+        <v>0.0001503531504074562</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>56.04219717215794</v>
+        <v>49.26684882830462</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[27.007339207122044, 85.07705513719384]</t>
+          <t>[21.20386331820876, 77.32983433840049]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00033034592812764</v>
+        <v>0.0009547817477142395</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00033034592812764</v>
+        <v>0.0009547817477142395</v>
       </c>
       <c r="P2" t="n">
-        <v>1.742184514603349</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0755001877154253, 2.408868841491273]</t>
+          <t>[0.5849211547224238, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.810568983464435e-06</v>
+        <v>0.0003701804920763774</v>
       </c>
       <c r="S2" t="n">
-        <v>3.810568983464435e-06</v>
+        <v>0.0003701804920763774</v>
       </c>
       <c r="T2" t="n">
-        <v>68.92184652288601</v>
+        <v>66.26413618321146</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.638357359024795, 86.20533568674723]</t>
+          <t>[50.95866680355297, 81.56960556286995]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.099864809286146e-10</v>
+        <v>3.163336259603966e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.099864809286146e-10</v>
+        <v>3.163336259603966e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.78356356356401</v>
+        <v>20.28108108108148</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.02586586586625</v>
+        <v>17.70810810810846</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.54126126126177</v>
+        <v>22.85405405405451</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.2000000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004835247330818859</v>
+        <v>8.359305620542212e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004835247330818859</v>
+        <v>8.359305620542212e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.17047000021697</v>
+        <v>55.91056579923215</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.603971051204795, 74.73696894922915]</t>
+          <t>[23.85971902825625, 87.96141257020804]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0006758391840615552</v>
+        <v>0.001020199748039907</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006758391840615552</v>
+        <v>0.001020199748039907</v>
       </c>
       <c r="P3" t="n">
-        <v>1.528342372016656</v>
+        <v>1.000026490331885</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7987632973091161, 2.257921446724196]</t>
+          <t>[0.4339737599553466, 1.5660792207084242]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001171360212433026</v>
+        <v>0.0008937216561051287</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001171360212433026</v>
+        <v>0.0008937216561051287</v>
       </c>
       <c r="T3" t="n">
-        <v>64.19458847253296</v>
+        <v>74.12588236563093</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.50718896491125, 80.88198798015466]</t>
+          <t>[57.619565119434526, 90.63219961182733]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.039915400104292e-10</v>
+        <v>1.095279422713702e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>8.039915400104292e-10</v>
+        <v>1.095279422713702e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.66810810810858</v>
+        <v>21.18918918918961</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.65025025025065</v>
+        <v>18.9189189189193</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.68596596596651</v>
+        <v>23.45945945945993</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.2000000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.00290153035732e-08</v>
+        <v>0.004327939165270411</v>
       </c>
       <c r="I4" t="n">
-        <v>8.00290153035732e-08</v>
+        <v>0.004327939165270411</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>71.83582947047113</v>
+        <v>27.58821923037077</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[44.424468542037104, 99.24719039890515]</t>
+          <t>[6.636383067905392, 48.54005539283615]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.622914280576595e-06</v>
+        <v>0.01100974873538685</v>
       </c>
       <c r="O4" t="n">
-        <v>3.622914280576595e-06</v>
+        <v>0.01100974873538685</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9497106920761942</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5597632555945777, 1.3396581285578106]</t>
+          <t>[0.3333421634439615, 1.8931319093704273]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.260010382542198e-05</v>
+        <v>0.006151116111121624</v>
       </c>
       <c r="S4" t="n">
-        <v>1.260010382542198e-05</v>
+        <v>0.006151116111121624</v>
       </c>
       <c r="T4" t="n">
-        <v>65.68388217531371</v>
+        <v>39.8086495821283</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[51.04377279704768, 80.32399155357975]</t>
+          <t>[28.534144846460606, 51.08315431779599]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.125699533588431e-11</v>
+        <v>6.965156229554736e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.125699533588431e-11</v>
+        <v>6.965156229554736e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>22.06158158158211</v>
+        <v>20.73513513513554</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.44858858858908</v>
+        <v>17.60720720720755</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.67457457457515</v>
+        <v>23.86306306306354</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.2000000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.104922582719539</v>
+        <v>1.027627811756027e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.104922582719539</v>
+        <v>1.027627811756027e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>25.14265970155639</v>
+        <v>61.75997760990349</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.222148001512295, 51.50746740462507]</t>
+          <t>[32.57844287413717, 90.94151234566982]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06111439136728025</v>
+        <v>0.0001020246437031247</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06111439136728025</v>
+        <v>0.0001020246437031247</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1572368695490391</v>
+        <v>0.3333421634439615</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.446579199851156, 1.7610529389492342]</t>
+          <t>[-0.1823947686768852, 0.8490790955648082]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8443559479470162</v>
+        <v>0.1996100763081128</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8443559479470162</v>
+        <v>0.1996100763081128</v>
       </c>
       <c r="T5" t="n">
-        <v>75.39841911168493</v>
+        <v>74.20048023614636</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[59.60006787250956, 91.1967703508603]</t>
+          <t>[58.52544136872163, 89.8755191035711]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.767697099808174e-12</v>
+        <v>2.268185639309195e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.767697099808174e-12</v>
+        <v>2.268185639309195e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>25.33959959960021</v>
+        <v>23.86306306306354</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.70551551551596</v>
+        <v>21.79459459459503</v>
       </c>
       <c r="Z5" t="n">
-        <v>31.97368368368445</v>
+        <v>25.93153153153205</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.09000000000017</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.686210823036998e-05</v>
+        <v>0.0009929286908618717</v>
       </c>
       <c r="I6" t="n">
-        <v>6.686210823036998e-05</v>
+        <v>0.0009929286908618717</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>58.64743022024582</v>
+        <v>57.38209664367567</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[27.42452565529733, 89.87033478519432]</t>
+          <t>[21.095793470805987, 93.66839981654536]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0004546732857004798</v>
+        <v>0.002628525688461281</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0004546732857004798</v>
+        <v>0.002628525688461281</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4213948103914236</v>
+        <v>0.2075526678047304</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.1823947686768852, 1.0251843894597323]</t>
+          <t>[-0.5597632555945786, 0.9748685912040393]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.166687405008751</v>
+        <v>0.588582075118584</v>
       </c>
       <c r="S6" t="n">
-        <v>0.166687405008751</v>
+        <v>0.588582075118584</v>
       </c>
       <c r="T6" t="n">
-        <v>67.67674704297309</v>
+        <v>70.24524348413658</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.438643309136225, 84.91485077680996]</t>
+          <t>[49.67561711000306, 90.8148698582701]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.703428757579786e-10</v>
+        <v>1.545083416765181e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>4.703428757579786e-10</v>
+        <v>1.545083416765181e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>21.54142142142158</v>
+        <v>22.51099099099119</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.32256256256271</v>
+        <v>19.66798798798816</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.76028028028046</v>
+        <v>25.35399399399421</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.09000000000017</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005487479926060468</v>
+        <v>0.002555338676235142</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005487479926060468</v>
+        <v>0.002555338676235142</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.86839517302405</v>
+        <v>48.88416784220364</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[7.857570905036461, 77.87921944101163]</t>
+          <t>[16.175604149324784, 81.59273153508249]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0175340269942863</v>
+        <v>0.004269514572666777</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0175340269942863</v>
+        <v>0.004269514572666777</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7610264486173479</v>
+        <v>0.1446579199851152</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.08176317216550189, 1.440289725069194]</t>
+          <t>[-0.7421580242714629, 1.0314738642416934]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02894115723803159</v>
+        <v>0.7440261472072836</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02894115723803159</v>
+        <v>0.7440261472072836</v>
       </c>
       <c r="T7" t="n">
-        <v>62.05684371520823</v>
+        <v>60.45170465541167</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.259831278680764, 79.8538561517357]</t>
+          <t>[41.372151486680714, 79.53125782414264]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.419517832398583e-09</v>
+        <v>8.460564693280048e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>9.419517832398583e-09</v>
+        <v>8.460564693280048e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>20.29331331331346</v>
+        <v>22.74402402402422</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.79709709709723</v>
+        <v>19.45825825825843</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.78952952952969</v>
+        <v>26.02978978979002</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.09000000000017</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002107766604203865</v>
+        <v>0.001644799998635982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002107766604203865</v>
+        <v>0.001644799998635982</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.37236336141363</v>
+        <v>42.35365913881489</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[12.162801408445787, 74.58192531438146]</t>
+          <t>[12.891796304274607, 71.81552197335517]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.007521921527160913</v>
+        <v>0.005823785277471849</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007521921527160913</v>
+        <v>0.005823785277471849</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8742369946926551</v>
+        <v>0.4591316590831926</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.19497371824080734, 1.553500271144503]</t>
+          <t>[-0.25786846606042424, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01281490637790528</v>
+        <v>0.2037326736908394</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01281490637790528</v>
+        <v>0.2037326736908394</v>
       </c>
       <c r="T8" t="n">
-        <v>70.45040926662159</v>
+        <v>63.50252942080202</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[54.13309120333, 86.76772732991319]</t>
+          <t>[47.71280810005135, 79.29225074155269]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.422706562616895e-11</v>
+        <v>2.464621839948222e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>3.422706562616895e-11</v>
+        <v>2.464621839948222e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>19.87727727727743</v>
+        <v>21.57885885885905</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.38106106106119</v>
+        <v>18.92228228228245</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.37349349349366</v>
+        <v>24.23543543543565</v>
       </c>
     </row>
   </sheetData>
